--- a/biology/Histoire de la zoologie et de la botanique/John_Stevens_Henslow/John_Stevens_Henslow.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Stevens_Henslow/John_Stevens_Henslow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Stevens Henslow est un botaniste et un géologue britannique, né le 6 février 1795 à Rochester et mort le 16 mai 1861 à Hitcham.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Stevens Henslow est le fils de John Prentis Henslow, homme de loi, qui lui transmet le goût de l’histoire naturelle, et le petit-fils de l'architecte naval John Henslow. Il fait ses études au St John's College de Cambridge. En 1818, il obtient le rang de Wrangler, un rang d’excellence en mathématique. La même année, Adam Sedgwick devient professeur de géologie Woodwardien (du nom de la chaire fondée par John Woodward en 1728). Henslow accompagne Sedgwick, en 1819, dans un voyage à l’île de Wight, durant lequel il prend ses premières leçons de géologie. Henslow suit également les cours de chimie auprès de James Cumming et de minéralogie auprès de Edward Daniel Clarke. À l’automne 1819, Henslow fait d’importantes observations sur la géologie de l’île de Man et en 1821, il étudie la géologie de parties d’Anglesey. Ces observations paraissent dans le premier volume des Transactions fo the Cambrdige Philosophical Society qu’il fonde avec Sedgwick. Il obtient son Master of Arts en 1821.
 Il se marie en 1823 avec Harriet Jenyns (1797-1857), fille George Leonard Jenyns, homme d’Église, frère de Leonard Jenyns, naturaliste. De cette union naîtront deux fils et trois filles ; l’une d’entre elles, Frances Harriet épouse le grand botaniste Sir Joseph Dalton Hooker.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(ne) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en népalais intitulé « John Stevens Henslow » (voir la liste des auteurs).
 Sur les autres projets Wikimedia :
